--- a/excel.xlsx
+++ b/excel.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="35">
   <si>
     <t>SERIAL NUMBER</t>
   </si>
@@ -44,40 +44,79 @@
     <t xml:space="preserve">DELL Optiplex 3040       </t>
   </si>
   <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>Hello</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Makotek                  </t>
+  </si>
+  <si>
+    <t>20180426</t>
+  </si>
+  <si>
+    <t>2222</t>
+  </si>
+  <si>
+    <t>Some1C</t>
+  </si>
+  <si>
+    <t>3333</t>
+  </si>
+  <si>
     <t>Lviv 2</t>
   </si>
   <si>
-    <t>Cutting</t>
-  </si>
-  <si>
-    <t>Hello</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Makotek                  </t>
-  </si>
-  <si>
-    <t>20180426</t>
-  </si>
-  <si>
-    <t>2222</t>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>EXCEL2</t>
+  </si>
+  <si>
+    <t>0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DELL Optiplex 3020       </t>
   </si>
   <si>
     <t>Lviv 1</t>
   </si>
   <si>
-    <t>IT</t>
-  </si>
-  <si>
-    <t>Some1C</t>
-  </si>
-  <si>
-    <t>3333</t>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>0009</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>456789098765</t>
+  </si>
+  <si>
+    <t>56789</t>
   </si>
   <si>
     <t>Nemyriv</t>
   </si>
   <si>
-    <t>Stock</t>
+    <t>567890</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t xml:space="preserve">DELL SFF 3050            </t>
+  </si>
+  <si>
+    <t>ETB</t>
+  </si>
+  <si>
+    <t>Privet</t>
+  </si>
+  <si>
+    <t>20180427</t>
   </si>
 </sst>
 </file>
@@ -207,73 +246,252 @@
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>1.0</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>1.0</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I3" s="1"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="1" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="1"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
